--- a/Documentacion/Rendimiento Racional.xlsx
+++ b/Documentacion/Rendimiento Racional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Octi\workspace\Racional\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B85F7E3-E42E-447A-8565-4B246A9BD4D2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7857159-2E23-407F-93CF-37FAF932E175}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="20490" windowHeight="8925" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -318,6 +318,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -329,12 +335,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -367,14 +367,36 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>Iterativo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-AR" baseline="0"/>
+              <a:t> - Iterativo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -387,36 +409,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Datos!$B$2:$G$2</c:f>
+              <c:f>Datos!$B$2:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -437,18 +438,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Datos!$B$3:$G$3</c:f>
+              <c:f>Datos!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>52174</c:v>
+                  <c:v>51319</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46187</c:v>
+                  <c:v>47470</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>135139</c:v>
+                  <c:v>135994</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1343264</c:v>
@@ -459,15 +460,15 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E7DD-4745-9999-5F6ABE98344C}"/>
+              <c16:uniqueId val="{00000001-0C2D-4465-BB5B-5F4523D7CDC5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -480,36 +481,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Datos!$B$2:$G$2</c:f>
+              <c:f>Datos!$B$2:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -530,18 +510,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Datos!$B$4:$G$4</c:f>
+              <c:f>Datos!$B$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>14540</c:v>
+                  <c:v>8125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22665</c:v>
+                  <c:v>17106</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67997</c:v>
+                  <c:v>94512</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1078974</c:v>
@@ -552,10 +532,10 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E7DD-4745-9999-5F6ABE98344C}"/>
+              <c16:uniqueId val="{00000002-0C2D-4465-BB5B-5F4523D7CDC5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -573,36 +553,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Datos!$B$2:$G$2</c:f>
+              <c:f>Datos!$B$2:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -623,32 +582,26 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Datos!$B$5:$G$5</c:f>
+              <c:f>Datos!$B$5:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5131</c:v>
+                  <c:v>11119</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76978</c:v>
+                  <c:v>43193</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60299</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1206415</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1997148</c:v>
+                  <c:v>278831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E7DD-4745-9999-5F6ABE98344C}"/>
+              <c16:uniqueId val="{00000003-0C2D-4465-BB5B-5F4523D7CDC5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -666,36 +619,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Datos!$B$2:$G$2</c:f>
+              <c:f>Datos!$B$2:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -716,394 +648,129 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Datos!$B$6:$G$6</c:f>
+              <c:f>Datos!$B$6:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5132</c:v>
+                  <c:v>3849</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14541</c:v>
+                  <c:v>39345</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>84248</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1090093</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>564505</c:v>
+                  <c:v>61582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E7DD-4745-9999-5F6ABE98344C}"/>
+              <c16:uniqueId val="{00000004-0C2D-4465-BB5B-5F4523D7CDC5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="291822968"/>
-        <c:axId val="291820016"/>
+        <c:axId val="49001984"/>
+        <c:axId val="49003520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="291822968"/>
+        <c:axId val="49001984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-AR" sz="1200" b="1" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>Grado del Polinomio</a:t>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Grado</a:t>
                 </a:r>
-                <a:endParaRPr lang="es-AR">
-                  <a:effectLst/>
-                </a:endParaRPr>
+                <a:r>
+                  <a:rPr lang="es-AR" baseline="0"/>
+                  <a:t> flotante</a:t>
+                </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="291820016"/>
+        <c:crossAx val="49003520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="291820016"/>
+        <c:axId val="49003520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
+          <c:max val="1400000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:buClrTx/>
-                  <a:buSzTx/>
-                  <a:buFontTx/>
-                  <a:buNone/>
-                  <a:tabLst/>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                <a:pPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-AR" sz="1100" b="1" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>TIempo de Ejecucción (ns)</a:t>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>TIempo de Ejecucción</a:t>
                 </a:r>
-                <a:endParaRPr lang="es-AR" sz="600">
-                  <a:effectLst/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:buClrTx/>
-                  <a:buSzTx/>
-                  <a:buFontTx/>
-                  <a:buNone/>
-                  <a:tabLst/>
-                  <a:defRPr>
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-AR" sz="600"/>
+                <a:r>
+                  <a:rPr lang="es-AR" baseline="0"/>
+                  <a:t> (ns)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-AR"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="291822968"/>
+        <c:crossAx val="49001984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1173,10 +840,16 @@
           </c:dLbls>
           <c:trendline>
             <c:trendlineType val="poly"/>
-            <c:order val="4"/>
+            <c:order val="5"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.9453848228973099E-2"/>
+                  <c:y val="-3.5877660456006883E-4"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -1211,13 +884,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>52174</c:v>
+                  <c:v>51319</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46187</c:v>
+                  <c:v>47470</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>135139</c:v>
+                  <c:v>135994</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1343264</c:v>
@@ -1251,7 +924,7 @@
         <c:axId val="49001984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5"/>
+          <c:max val="4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1289,7 +962,7 @@
         <c:axId val="49003520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="7000000"/>
+          <c:max val="1400000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1444,13 +1117,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>14540</c:v>
+                  <c:v>8125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22665</c:v>
+                  <c:v>17106</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67997</c:v>
+                  <c:v>94512</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1078974</c:v>
@@ -1484,7 +1157,7 @@
         <c:axId val="51931392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5"/>
+          <c:max val="4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1519,7 +1192,8 @@
         <c:axId val="51941376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-1000"/>
+          <c:max val="1400000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1712,11 +1386,16 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="log"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.35143601368010818"/>
+                  <c:y val="-3.9685768445610968E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1778,19 +1457,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5132</c:v>
+                  <c:v>3849</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14541</c:v>
+                  <c:v>39345</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>84248</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1090093</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>564505</c:v>
+                  <c:v>61582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1818,6 +1491,7 @@
         <c:axId val="379762296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1842,7 +1516,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-AR"/>
-                  <a:t>Grado del Polinomio</a:t>
+                  <a:t>Grado del flotante</a:t>
                 </a:r>
               </a:p>
               <a:p>
@@ -1919,11 +1593,13 @@
         <c:crossAx val="379759672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="379759672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="140000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2298,19 +1974,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5131</c:v>
+                  <c:v>11119</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76978</c:v>
+                  <c:v>43193</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60299</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1206415</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1997148</c:v>
+                  <c:v>278831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2338,6 +2008,7 @@
         <c:axId val="499035320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2380,7 +2051,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="es-AR" baseline="0"/>
-                  <a:t> del Polinomio</a:t>
+                  <a:t> del flotante</a:t>
                 </a:r>
                 <a:endParaRPr lang="es-AR"/>
               </a:p>
@@ -2460,6 +2131,8 @@
         <c:axId val="499035648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1400000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2734,46 +2407,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3278,7 +2911,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3305,8 +2938,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3407,509 +3040,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4301,22 +3431,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="13 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ADE36AF-BA6A-40E8-AE7A-F5D8C9FF2C38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03EBC55B-DD0B-445D-904E-2CCEB99BC5F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4762,7 +3892,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4772,23 +3902,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
+      <c r="A2" s="18"/>
       <c r="B2" s="3">
         <v>1</v>
       </c>
@@ -4814,15 +3944,15 @@
         <v>3</v>
       </c>
       <c r="B3" s="7">
-        <v>52174</v>
+        <v>51319</v>
       </c>
-      <c r="C3" s="19">
-        <v>46187</v>
+      <c r="C3" s="15">
+        <v>47470</v>
       </c>
-      <c r="D3" s="19">
-        <v>135139</v>
+      <c r="D3" s="15">
+        <v>135994</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="15">
         <v>1343264</v>
       </c>
       <c r="F3" s="8">
@@ -4838,15 +3968,15 @@
         <v>2</v>
       </c>
       <c r="B4" s="11">
-        <v>14540</v>
+        <v>8125</v>
       </c>
-      <c r="C4" s="20">
-        <v>22665</v>
+      <c r="C4" s="16">
+        <v>17106</v>
       </c>
-      <c r="D4" s="20">
-        <v>67997</v>
+      <c r="D4" s="16">
+        <v>94512</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="16">
         <v>1078974</v>
       </c>
       <c r="F4" s="12">
@@ -4862,20 +3992,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="11">
-        <v>5131</v>
+        <v>11119</v>
       </c>
-      <c r="C5" s="20">
-        <v>76978</v>
+      <c r="C5" s="16">
+        <v>43193</v>
       </c>
-      <c r="D5" s="20">
-        <v>60299</v>
+      <c r="D5" s="16">
+        <v>278831</v>
       </c>
-      <c r="E5" s="20">
-        <v>1206415</v>
-      </c>
-      <c r="F5" s="12">
-        <v>1997148</v>
-      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -4886,20 +4012,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="11">
-        <v>5132</v>
+        <v>3849</v>
       </c>
-      <c r="C6" s="20">
-        <v>14541</v>
+      <c r="C6" s="16">
+        <v>39345</v>
       </c>
-      <c r="D6" s="20">
-        <v>84248</v>
+      <c r="D6" s="16">
+        <v>61582</v>
       </c>
-      <c r="E6" s="20">
-        <v>1090093</v>
-      </c>
-      <c r="F6" s="12">
-        <v>564505</v>
-      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -4934,7 +4056,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4949,7 +4071,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
